--- a/results/BD.xlsx
+++ b/results/BD.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T331"/>
+  <dimension ref="A1:T330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4185,9 +4185,6 @@
       <c r="E49">
         <v>30</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9102,9 +9099,6 @@
       <c r="E110">
         <v>70</v>
       </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>SEVERE</t>
@@ -11833,9 +11827,6 @@
       <c r="E143">
         <v>56</v>
       </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
       <c r="G143" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15924,9 +15915,6 @@
       <c r="E193">
         <v>59</v>
       </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
       <c r="G193" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16957,9 +16945,6 @@
       <c r="E206">
         <v>49</v>
       </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
       <c r="H206" t="inlineStr">
         <is>
           <t>Coffee</t>
@@ -17314,60 +17299,60 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D211">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E211">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F211">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J211">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K211">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>EXPANDED</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="M211">
         <v>29</v>
       </c>
       <c r="N211">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P211">
         <v>22</v>
       </c>
       <c r="Q211">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -17398,21 +17383,21 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D212">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E212">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F212">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>VERY-SEVERE</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -17422,14 +17407,14 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J212">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K212">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -17440,7 +17425,7 @@
         <v>29</v>
       </c>
       <c r="N212">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -17451,7 +17436,7 @@
         <v>22</v>
       </c>
       <c r="Q212">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -17477,26 +17462,26 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D213">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E213">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F213">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>VERY-SEVERE</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -17510,10 +17495,10 @@
         </is>
       </c>
       <c r="J213">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K213">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -17532,10 +17517,10 @@
         </is>
       </c>
       <c r="P213">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q213">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -17549,7 +17534,7 @@
       </c>
       <c r="T213" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -17566,21 +17551,21 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D214">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E214">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F214">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -17594,10 +17579,10 @@
         </is>
       </c>
       <c r="J214">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K214">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -17605,10 +17590,10 @@
         </is>
       </c>
       <c r="M214">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N214">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -17616,10 +17601,10 @@
         </is>
       </c>
       <c r="P214">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q214">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -17628,7 +17613,7 @@
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T214" t="inlineStr">
@@ -17645,26 +17630,26 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D215">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E215">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F215">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -17678,10 +17663,10 @@
         </is>
       </c>
       <c r="J215">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K215">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -17692,7 +17677,7 @@
         <v>30</v>
       </c>
       <c r="N215">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -17712,12 +17697,12 @@
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T215" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -17738,17 +17723,17 @@
         </is>
       </c>
       <c r="D216">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E216">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -17762,10 +17747,10 @@
         </is>
       </c>
       <c r="J216">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K216">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -17773,7 +17758,7 @@
         </is>
       </c>
       <c r="M216">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N216">
         <v>30</v>
@@ -17796,7 +17781,7 @@
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
@@ -17818,38 +17803,38 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D217">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E217">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F217">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J217">
         <v>17</v>
       </c>
       <c r="K217">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -17880,7 +17865,7 @@
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T217" t="inlineStr">
@@ -17902,21 +17887,21 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D218">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E218">
+        <v>53</v>
+      </c>
+      <c r="F218">
         <v>23</v>
       </c>
-      <c r="F218">
-        <v>1</v>
-      </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -17926,25 +17911,25 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J218">
         <v>17</v>
       </c>
       <c r="K218">
+        <v>17</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="M218">
         <v>20</v>
       </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="M218">
-        <v>29</v>
-      </c>
       <c r="N218">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -17986,26 +17971,26 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D219">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E219">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F219">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -18014,10 +17999,10 @@
         </is>
       </c>
       <c r="J219">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K219">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -18025,10 +18010,10 @@
         </is>
       </c>
       <c r="M219">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N219">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -18048,7 +18033,7 @@
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T219" t="inlineStr">
@@ -18070,21 +18055,21 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D220">
         <v>35</v>
       </c>
       <c r="E220">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F220">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -18098,10 +18083,10 @@
         </is>
       </c>
       <c r="J220">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K220">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -18109,7 +18094,7 @@
         </is>
       </c>
       <c r="M220">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N220">
         <v>29</v>
@@ -18132,7 +18117,7 @@
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T220" t="inlineStr">
@@ -18154,21 +18139,21 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D221">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E221">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F221">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -18178,14 +18163,14 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J221">
+        <v>15</v>
+      </c>
+      <c r="K221">
         <v>16</v>
-      </c>
-      <c r="K221">
-        <v>17</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -18196,7 +18181,7 @@
         <v>29</v>
       </c>
       <c r="N221">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -18216,7 +18201,7 @@
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T221" t="inlineStr">
@@ -18242,13 +18227,13 @@
         </is>
       </c>
       <c r="D222">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E222">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -18262,14 +18247,14 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J222">
         <v>15</v>
       </c>
       <c r="K222">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -18277,10 +18262,10 @@
         </is>
       </c>
       <c r="M222">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N222">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -18317,26 +18302,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D223">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E223">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F223">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -18346,11 +18331,11 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J223">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K223">
         <v>20</v>
@@ -18361,10 +18346,10 @@
         </is>
       </c>
       <c r="M223">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N223">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -18384,12 +18369,12 @@
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T223" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -18401,7 +18386,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -18410,17 +18395,14 @@
         </is>
       </c>
       <c r="D224">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E224">
-        <v>68</v>
-      </c>
-      <c r="F224">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -18430,14 +18412,14 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J224">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K224">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -18448,7 +18430,7 @@
         <v>29</v>
       </c>
       <c r="N224">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -18459,7 +18441,7 @@
         <v>22</v>
       </c>
       <c r="Q224">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -18468,12 +18450,12 @@
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T224" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -18494,13 +18476,13 @@
         </is>
       </c>
       <c r="D225">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E225">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -18518,7 +18500,7 @@
         </is>
       </c>
       <c r="J225">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K225">
         <v>18</v>
@@ -18529,7 +18511,7 @@
         </is>
       </c>
       <c r="M225">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N225">
         <v>29</v>
@@ -18543,7 +18525,7 @@
         <v>22</v>
       </c>
       <c r="Q225">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -18578,22 +18560,22 @@
         </is>
       </c>
       <c r="D226">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E226">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F226">
         <v>16</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -18602,7 +18584,7 @@
         </is>
       </c>
       <c r="J226">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K226">
         <v>18</v>
@@ -18613,7 +18595,7 @@
         </is>
       </c>
       <c r="M226">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N226">
         <v>29</v>
@@ -18627,7 +18609,7 @@
         <v>22</v>
       </c>
       <c r="Q226">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -18636,7 +18618,7 @@
       </c>
       <c r="S226" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T226" t="inlineStr">
@@ -18653,7 +18635,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -18661,32 +18643,26 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D227">
-        <v>57</v>
-      </c>
       <c r="E227">
-        <v>73</v>
-      </c>
-      <c r="F227">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J227">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K227">
         <v>18</v>
@@ -18697,10 +18673,10 @@
         </is>
       </c>
       <c r="M227">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N227">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -18711,7 +18687,7 @@
         <v>22</v>
       </c>
       <c r="Q227">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -18720,12 +18696,12 @@
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T227" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -18737,7 +18713,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -18745,8 +18721,14 @@
           <t>Female</t>
         </is>
       </c>
+      <c r="D228">
+        <v>18</v>
+      </c>
       <c r="E228">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="F228">
+        <v>37</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -18755,7 +18737,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -18764,7 +18746,7 @@
         </is>
       </c>
       <c r="J228">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K228">
         <v>18</v>
@@ -18775,7 +18757,7 @@
         </is>
       </c>
       <c r="M228">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N228">
         <v>30</v>
@@ -18789,7 +18771,7 @@
         <v>22</v>
       </c>
       <c r="Q228">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -18803,7 +18785,7 @@
       </c>
       <c r="T228" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -18824,13 +18806,13 @@
         </is>
       </c>
       <c r="D229">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E229">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F229">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -18844,14 +18826,14 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J229">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K229">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -18862,7 +18844,7 @@
         <v>29</v>
       </c>
       <c r="N229">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -18873,7 +18855,7 @@
         <v>22</v>
       </c>
       <c r="Q229">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -18904,17 +18886,17 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D230">
+        <v>46</v>
+      </c>
+      <c r="E230">
         <v>47</v>
       </c>
-      <c r="E230">
-        <v>56</v>
-      </c>
       <c r="F230">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -18932,10 +18914,10 @@
         </is>
       </c>
       <c r="J230">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K230">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -18943,10 +18925,10 @@
         </is>
       </c>
       <c r="M230">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N230">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -18983,31 +18965,31 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D231">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E231">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -19016,10 +18998,10 @@
         </is>
       </c>
       <c r="J231">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K231">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -19027,7 +19009,7 @@
         </is>
       </c>
       <c r="M231">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N231">
         <v>30</v>
@@ -19041,7 +19023,7 @@
         <v>22</v>
       </c>
       <c r="Q231">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -19050,12 +19032,12 @@
       </c>
       <c r="S231" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T231" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -19067,7 +19049,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -19076,22 +19058,22 @@
         </is>
       </c>
       <c r="D232">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E232">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F232">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -19100,10 +19082,10 @@
         </is>
       </c>
       <c r="J232">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K232">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -19125,7 +19107,7 @@
         <v>22</v>
       </c>
       <c r="Q232">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -19134,12 +19116,12 @@
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T232" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -19160,34 +19142,34 @@
         </is>
       </c>
       <c r="D233">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E233">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F233">
+        <v>44</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>SEVERE</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Non-coffee</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="J233">
+        <v>18</v>
+      </c>
+      <c r="K233">
         <v>20</v>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Non-coffee</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>Smoking</t>
-        </is>
-      </c>
-      <c r="J233">
-        <v>14</v>
-      </c>
-      <c r="K233">
-        <v>18</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -19209,7 +19191,7 @@
         <v>22</v>
       </c>
       <c r="Q233">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -19218,7 +19200,7 @@
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T233" t="inlineStr">
@@ -19244,34 +19226,34 @@
         </is>
       </c>
       <c r="D234">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E234">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F234">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J234">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K234">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -19293,7 +19275,7 @@
         <v>22</v>
       </c>
       <c r="Q234">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -19302,7 +19284,7 @@
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T234" t="inlineStr">
@@ -19319,7 +19301,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -19328,17 +19310,17 @@
         </is>
       </c>
       <c r="D235">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E235">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F235">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -19348,11 +19330,11 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J235">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K235">
         <v>17</v>
@@ -19363,11 +19345,11 @@
         </is>
       </c>
       <c r="M235">
+        <v>28</v>
+      </c>
+      <c r="N235">
         <v>29</v>
       </c>
-      <c r="N235">
-        <v>30</v>
-      </c>
       <c r="O235" t="inlineStr">
         <is>
           <t>NORMAL</t>
@@ -19386,12 +19368,12 @@
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T235" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -19411,18 +19393,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D236">
-        <v>38</v>
-      </c>
       <c r="E236">
-        <v>62</v>
-      </c>
-      <c r="F236">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -19436,10 +19412,10 @@
         </is>
       </c>
       <c r="J236">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K236">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -19447,10 +19423,10 @@
         </is>
       </c>
       <c r="M236">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N236">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -19487,7 +19463,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -19495,8 +19471,14 @@
           <t>Female</t>
         </is>
       </c>
+      <c r="D237">
+        <v>36</v>
+      </c>
       <c r="E237">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="F237">
+        <v>17</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -19514,10 +19496,10 @@
         </is>
       </c>
       <c r="J237">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K237">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -19553,7 +19535,7 @@
       </c>
       <c r="T237" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -19574,13 +19556,13 @@
         </is>
       </c>
       <c r="D238">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E238">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F238">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -19598,10 +19580,10 @@
         </is>
       </c>
       <c r="J238">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K238">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -19609,10 +19591,10 @@
         </is>
       </c>
       <c r="M238">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N238">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -19658,22 +19640,22 @@
         </is>
       </c>
       <c r="D239">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E239">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F239">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -19682,10 +19664,10 @@
         </is>
       </c>
       <c r="J239">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K239">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -19693,10 +19675,10 @@
         </is>
       </c>
       <c r="M239">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N239">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -19742,34 +19724,34 @@
         </is>
       </c>
       <c r="D240">
+        <v>23</v>
+      </c>
+      <c r="E240">
+        <v>57</v>
+      </c>
+      <c r="F240">
         <v>34</v>
       </c>
-      <c r="E240">
-        <v>49</v>
-      </c>
-      <c r="F240">
-        <v>15</v>
-      </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J240">
         <v>17</v>
       </c>
       <c r="K240">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -19777,7 +19759,7 @@
         </is>
       </c>
       <c r="M240">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N240">
         <v>30</v>
@@ -19826,34 +19808,34 @@
         </is>
       </c>
       <c r="D241">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E241">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F241">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J241">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K241">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -19861,14 +19843,14 @@
         </is>
       </c>
       <c r="M241">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N241">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P241">
@@ -19884,7 +19866,7 @@
       </c>
       <c r="S241" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T241" t="inlineStr">
@@ -19910,35 +19892,35 @@
         </is>
       </c>
       <c r="D242">
+        <v>55</v>
+      </c>
+      <c r="E242">
+        <v>66</v>
+      </c>
+      <c r="F242">
+        <v>11</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>SEVERE</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Non-smoking</t>
+        </is>
+      </c>
+      <c r="J242">
+        <v>17</v>
+      </c>
+      <c r="K242">
         <v>18</v>
       </c>
-      <c r="E242">
-        <v>27</v>
-      </c>
-      <c r="F242">
-        <v>9</v>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Non-coffee</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>Smoking</t>
-        </is>
-      </c>
-      <c r="J242">
-        <v>18</v>
-      </c>
-      <c r="K242">
-        <v>19</v>
-      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>NORMAL</t>
@@ -19948,11 +19930,11 @@
         <v>30</v>
       </c>
       <c r="N242">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P242">
@@ -19968,7 +19950,7 @@
       </c>
       <c r="S242" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T242" t="inlineStr">
@@ -19994,17 +19976,17 @@
         </is>
       </c>
       <c r="D243">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E243">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F243">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -20014,14 +19996,14 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J243">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K243">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -20029,7 +20011,7 @@
         </is>
       </c>
       <c r="M243">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N243">
         <v>30</v>
@@ -20043,7 +20025,7 @@
         <v>22</v>
       </c>
       <c r="Q243">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -20069,7 +20051,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -20078,13 +20060,13 @@
         </is>
       </c>
       <c r="D244">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E244">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F244">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -20093,7 +20075,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -20102,10 +20084,10 @@
         </is>
       </c>
       <c r="J244">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K244">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -20113,14 +20095,14 @@
         </is>
       </c>
       <c r="M244">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N244">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P244">
@@ -20141,7 +20123,7 @@
       </c>
       <c r="T244" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -20153,31 +20135,31 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D245">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E245">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F245">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -20186,10 +20168,10 @@
         </is>
       </c>
       <c r="J245">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K245">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -20197,21 +20179,21 @@
         </is>
       </c>
       <c r="M245">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N245">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P245">
         <v>22</v>
       </c>
       <c r="Q245">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -20220,12 +20202,12 @@
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T245" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -20242,17 +20224,17 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D246">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E246">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F246">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -20261,7 +20243,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -20273,7 +20255,7 @@
         <v>17</v>
       </c>
       <c r="K246">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -20281,7 +20263,7 @@
         </is>
       </c>
       <c r="M246">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N246">
         <v>30</v>
@@ -20330,17 +20312,17 @@
         </is>
       </c>
       <c r="D247">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E247">
         <v>51</v>
       </c>
       <c r="F247">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -20388,7 +20370,7 @@
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T247" t="inlineStr">
@@ -20405,7 +20387,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -20414,22 +20396,22 @@
         </is>
       </c>
       <c r="D248">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E248">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F248">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -20441,7 +20423,7 @@
         <v>17</v>
       </c>
       <c r="K248">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -20452,7 +20434,7 @@
         <v>29</v>
       </c>
       <c r="N248">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -20463,7 +20445,7 @@
         <v>22</v>
       </c>
       <c r="Q248">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -20472,12 +20454,12 @@
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T248" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -20489,7 +20471,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -20498,13 +20480,13 @@
         </is>
       </c>
       <c r="D249">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E249">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F249">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -20518,14 +20500,14 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J249">
         <v>17</v>
       </c>
       <c r="K249">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -20536,22 +20518,22 @@
         <v>29</v>
       </c>
       <c r="N249">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P249">
         <v>22</v>
       </c>
       <c r="Q249">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="S249" t="inlineStr">
@@ -20561,7 +20543,7 @@
       </c>
       <c r="T249" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -20578,17 +20560,17 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D250">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E250">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F250">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -20606,10 +20588,10 @@
         </is>
       </c>
       <c r="J250">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K250">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -20620,22 +20602,22 @@
         <v>29</v>
       </c>
       <c r="N250">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P250">
         <v>22</v>
       </c>
       <c r="Q250">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="S250" t="inlineStr">
@@ -20662,17 +20644,17 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D251">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E251">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F251">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -20690,10 +20672,10 @@
         </is>
       </c>
       <c r="J251">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K251">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -20701,10 +20683,10 @@
         </is>
       </c>
       <c r="M251">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N251">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O251" t="inlineStr">
         <is>
@@ -20750,13 +20732,13 @@
         </is>
       </c>
       <c r="D252">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E252">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F252">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -20765,7 +20747,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -20777,7 +20759,7 @@
         <v>17</v>
       </c>
       <c r="K252">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -20788,7 +20770,7 @@
         <v>30</v>
       </c>
       <c r="N252">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
@@ -20830,21 +20812,21 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D253">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E253">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F253">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -20854,14 +20836,14 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J253">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K253">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -20872,7 +20854,7 @@
         <v>30</v>
       </c>
       <c r="N253">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -20883,7 +20865,7 @@
         <v>22</v>
       </c>
       <c r="Q253">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -20892,7 +20874,7 @@
       </c>
       <c r="S253" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T253" t="inlineStr">
@@ -20909,43 +20891,43 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D254">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E254">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F254">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J254">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K254">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -20967,7 +20949,7 @@
         <v>22</v>
       </c>
       <c r="Q254">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -20981,7 +20963,7 @@
       </c>
       <c r="T254" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -21002,17 +20984,17 @@
         </is>
       </c>
       <c r="D255">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E255">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -21022,14 +21004,14 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J255">
         <v>20</v>
       </c>
       <c r="K255">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -21037,10 +21019,10 @@
         </is>
       </c>
       <c r="M255">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N255">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -21077,7 +21059,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -21086,13 +21068,13 @@
         </is>
       </c>
       <c r="D256">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E256">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F256">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -21110,10 +21092,10 @@
         </is>
       </c>
       <c r="J256">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K256">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -21124,7 +21106,7 @@
         <v>29</v>
       </c>
       <c r="N256">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
@@ -21149,7 +21131,7 @@
       </c>
       <c r="T256" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -21161,7 +21143,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -21170,34 +21152,34 @@
         </is>
       </c>
       <c r="D257">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E257">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F257">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J257">
         <v>17</v>
       </c>
       <c r="K257">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -21205,10 +21187,10 @@
         </is>
       </c>
       <c r="M257">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N257">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
@@ -21233,7 +21215,7 @@
       </c>
       <c r="T257" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -21245,7 +21227,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -21254,13 +21236,10 @@
         </is>
       </c>
       <c r="D258">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E258">
-        <v>46</v>
-      </c>
-      <c r="F258">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -21269,19 +21248,19 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J258">
         <v>17</v>
       </c>
       <c r="K258">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -21289,7 +21268,7 @@
         </is>
       </c>
       <c r="M258">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N258">
         <v>31</v>
@@ -21317,7 +21296,7 @@
       </c>
       <c r="T258" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -21338,22 +21317,19 @@
         </is>
       </c>
       <c r="D259">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E259">
-        <v>26</v>
-      </c>
-      <c r="F259">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -21365,7 +21341,7 @@
         <v>17</v>
       </c>
       <c r="K259">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -21373,10 +21349,10 @@
         </is>
       </c>
       <c r="M259">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N259">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
@@ -21387,7 +21363,7 @@
         <v>22</v>
       </c>
       <c r="Q259">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -21396,7 +21372,7 @@
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T259" t="inlineStr">
@@ -21413,7 +21389,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -21425,10 +21401,10 @@
         <v>36</v>
       </c>
       <c r="E260">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -21437,19 +21413,19 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J260">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K260">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -21460,7 +21436,7 @@
         <v>30</v>
       </c>
       <c r="N260">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -21471,7 +21447,7 @@
         <v>22</v>
       </c>
       <c r="Q260">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -21485,7 +21461,7 @@
       </c>
       <c r="T260" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -21497,7 +21473,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -21506,19 +21482,11 @@
         </is>
       </c>
       <c r="D261">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E261">
         <v>39</v>
       </c>
-      <c r="F261">
-        <v>3</v>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="H261" t="inlineStr">
         <is>
           <t>Coffee</t>
@@ -21530,10 +21498,10 @@
         </is>
       </c>
       <c r="J261">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K261">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -21541,10 +21509,10 @@
         </is>
       </c>
       <c r="M261">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N261">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
@@ -21555,21 +21523,16 @@
         <v>22</v>
       </c>
       <c r="Q261">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
           <t>NORMAL</t>
         </is>
       </c>
-      <c r="S261" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="T261" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -21586,17 +21549,22 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D262">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E262">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>MILD</t>
+        </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
@@ -21609,10 +21577,10 @@
         </is>
       </c>
       <c r="J262">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K262">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -21620,10 +21588,10 @@
         </is>
       </c>
       <c r="M262">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N262">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -21634,11 +21602,16 @@
         <v>22</v>
       </c>
       <c r="Q262">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
           <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>CD</t>
         </is>
       </c>
       <c r="T262" t="inlineStr">
@@ -21660,21 +21633,18 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D263">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E263">
-        <v>50</v>
-      </c>
-      <c r="F263">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -21684,7 +21654,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J263">
@@ -21713,7 +21683,7 @@
         <v>22</v>
       </c>
       <c r="Q263">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -21748,17 +21718,17 @@
         </is>
       </c>
       <c r="D264">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E264">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -21768,14 +21738,14 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J264">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K264">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -21783,10 +21753,10 @@
         </is>
       </c>
       <c r="M264">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N264">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
@@ -21797,7 +21767,7 @@
         <v>22</v>
       </c>
       <c r="Q264">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -21832,42 +21802,42 @@
         </is>
       </c>
       <c r="D265">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E265">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F265">
         <v>15</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J265">
         <v>19</v>
       </c>
       <c r="K265">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="M265">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N265">
         <v>30</v>
@@ -21916,17 +21886,17 @@
         </is>
       </c>
       <c r="D266">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E266">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F266">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -21943,7 +21913,7 @@
         <v>19</v>
       </c>
       <c r="K266">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -21991,7 +21961,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -22000,13 +21970,13 @@
         </is>
       </c>
       <c r="D267">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E267">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F267">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -22015,30 +21985,30 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J267">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K267">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="M267">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N267">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
@@ -22049,7 +22019,7 @@
         <v>22</v>
       </c>
       <c r="Q267">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -22063,7 +22033,7 @@
       </c>
       <c r="T267" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -22084,17 +22054,17 @@
         </is>
       </c>
       <c r="D268">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E268">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F268">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -22108,10 +22078,10 @@
         </is>
       </c>
       <c r="J268">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K268">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -22122,7 +22092,7 @@
         <v>29</v>
       </c>
       <c r="N268">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
@@ -22133,7 +22103,7 @@
         <v>22</v>
       </c>
       <c r="Q268">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -22159,7 +22129,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -22168,34 +22138,34 @@
         </is>
       </c>
       <c r="D269">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E269">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F269">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J269">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K269">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -22203,10 +22173,10 @@
         </is>
       </c>
       <c r="M269">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N269">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -22217,7 +22187,7 @@
         <v>22</v>
       </c>
       <c r="Q269">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -22231,7 +22201,7 @@
       </c>
       <c r="T269" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -22252,17 +22222,17 @@
         </is>
       </c>
       <c r="D270">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E270">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -22279,18 +22249,18 @@
         <v>17</v>
       </c>
       <c r="K270">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="M270">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N270">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O270" t="inlineStr">
         <is>
@@ -22301,7 +22271,7 @@
         <v>22</v>
       </c>
       <c r="Q270">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -22332,26 +22302,26 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D271">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E271">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F271">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -22360,10 +22330,10 @@
         </is>
       </c>
       <c r="J271">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K271">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -22416,21 +22386,18 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D272">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E272">
-        <v>72</v>
-      </c>
-      <c r="F272">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -22444,21 +22411,21 @@
         </is>
       </c>
       <c r="J272">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K272">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="M272">
         <v>29</v>
       </c>
       <c r="N272">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -22466,14 +22433,14 @@
         </is>
       </c>
       <c r="P272">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q272">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="S272" t="inlineStr">
@@ -22495,43 +22462,43 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D273">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E273">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J273">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K273">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -22542,18 +22509,18 @@
         <v>29</v>
       </c>
       <c r="N273">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P273">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q273">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -22562,12 +22529,12 @@
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T273" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -22579,22 +22546,22 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D274">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E274">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F274">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -22603,7 +22570,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -22615,7 +22582,7 @@
         <v>17</v>
       </c>
       <c r="K274">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -22626,22 +22593,22 @@
         <v>29</v>
       </c>
       <c r="N274">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P274">
         <v>22</v>
       </c>
       <c r="Q274">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="S274" t="inlineStr">
@@ -22651,7 +22618,7 @@
       </c>
       <c r="T274" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -22672,13 +22639,13 @@
         </is>
       </c>
       <c r="D275">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E275">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F275">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -22696,10 +22663,10 @@
         </is>
       </c>
       <c r="J275">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K275">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -22710,11 +22677,11 @@
         <v>29</v>
       </c>
       <c r="N275">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P275">
@@ -22752,17 +22719,17 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D276">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E276">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F276">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -22771,19 +22738,19 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J276">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K276">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -22794,11 +22761,11 @@
         <v>29</v>
       </c>
       <c r="N276">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P276">
@@ -22831,43 +22798,43 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D277">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E277">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J277">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K277">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -22898,12 +22865,12 @@
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T277" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -22915,7 +22882,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -22924,17 +22891,17 @@
         </is>
       </c>
       <c r="D278">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E278">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F278">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -22944,25 +22911,36 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J278">
         <v>18</v>
       </c>
       <c r="K278">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="M278">
+        <v>28</v>
+      </c>
+      <c r="N278">
+        <v>32</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
       <c r="P278">
         <v>22</v>
       </c>
       <c r="Q278">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -22971,12 +22949,12 @@
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T278" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -22997,13 +22975,13 @@
         </is>
       </c>
       <c r="D279">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E279">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F279">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -23021,7 +22999,7 @@
         </is>
       </c>
       <c r="J279">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K279">
         <v>19</v>
@@ -23031,11 +23009,22 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="M279">
+        <v>29</v>
+      </c>
+      <c r="N279">
+        <v>30</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
       <c r="P279">
         <v>22</v>
       </c>
       <c r="Q279">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -23070,17 +23059,17 @@
         </is>
       </c>
       <c r="D280">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E280">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F280">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -23090,29 +23079,29 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J280">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K280">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="M280">
         <v>29</v>
       </c>
       <c r="N280">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P280">
@@ -23128,7 +23117,7 @@
       </c>
       <c r="S280" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T280" t="inlineStr">
@@ -23154,49 +23143,49 @@
         </is>
       </c>
       <c r="D281">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E281">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F281">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J281">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K281">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="M281">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N281">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P281">
@@ -23212,7 +23201,7 @@
       </c>
       <c r="S281" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T281" t="inlineStr">
@@ -23238,46 +23227,46 @@
         </is>
       </c>
       <c r="D282">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E282">
+        <v>65</v>
+      </c>
+      <c r="F282">
+        <v>22</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>SEVERE</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Non-coffee</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="J282">
+        <v>18</v>
+      </c>
+      <c r="K282">
+        <v>23</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="M282">
+        <v>29</v>
+      </c>
+      <c r="N282">
         <v>31</v>
       </c>
-      <c r="F282">
-        <v>6</v>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>Non-coffee</t>
-        </is>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>Smoking</t>
-        </is>
-      </c>
-      <c r="J282">
-        <v>14</v>
-      </c>
-      <c r="K282">
-        <v>17</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="M282">
-        <v>28</v>
-      </c>
-      <c r="N282">
-        <v>30</v>
-      </c>
       <c r="O282" t="inlineStr">
         <is>
           <t>NORMAL</t>
@@ -23296,7 +23285,7 @@
       </c>
       <c r="S282" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T282" t="inlineStr">
@@ -23318,26 +23307,26 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D283">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E283">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F283">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -23346,10 +23335,10 @@
         </is>
       </c>
       <c r="J283">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K283">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -23360,7 +23349,7 @@
         <v>29</v>
       </c>
       <c r="N283">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -23395,45 +23384,11 @@
           <t>BD</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>BD-I</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D284">
-        <v>42</v>
-      </c>
-      <c r="E284">
-        <v>53</v>
-      </c>
-      <c r="F284">
-        <v>11</v>
-      </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>MILD</t>
-        </is>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="I284" t="inlineStr">
-        <is>
-          <t>Smoking</t>
-        </is>
-      </c>
       <c r="J284">
         <v>14</v>
       </c>
       <c r="K284">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -23441,10 +23396,10 @@
         </is>
       </c>
       <c r="M284">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N284">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -23460,16 +23415,6 @@
       <c r="R284" t="inlineStr">
         <is>
           <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="S284" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T284" t="inlineStr">
-        <is>
-          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -23479,11 +23424,45 @@
           <t>BD</t>
         </is>
       </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>BD-I</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D285">
+        <v>39</v>
+      </c>
+      <c r="E285">
+        <v>50</v>
+      </c>
+      <c r="F285">
+        <v>11</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>SEVERE</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Non-coffee</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Non-smoking</t>
+        </is>
+      </c>
       <c r="J285">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K285">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -23491,10 +23470,10 @@
         </is>
       </c>
       <c r="M285">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N285">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
@@ -23510,6 +23489,16 @@
       <c r="R285" t="inlineStr">
         <is>
           <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -23530,22 +23519,22 @@
         </is>
       </c>
       <c r="D286">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E286">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F286">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -23554,10 +23543,10 @@
         </is>
       </c>
       <c r="J286">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K286">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -23565,10 +23554,10 @@
         </is>
       </c>
       <c r="M286">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N286">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
@@ -23603,45 +23592,11 @@
           <t>BD</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>BD-I</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D287">
-        <v>30</v>
-      </c>
-      <c r="E287">
-        <v>45</v>
-      </c>
-      <c r="F287">
-        <v>15</v>
-      </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>MODERATE</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>Non-smoking</t>
-        </is>
-      </c>
       <c r="J287">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K287">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -23649,10 +23604,10 @@
         </is>
       </c>
       <c r="M287">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N287">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
@@ -23668,16 +23623,6 @@
       <c r="R287" t="inlineStr">
         <is>
           <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="S287" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T287" t="inlineStr">
-        <is>
-          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -23688,10 +23633,10 @@
         </is>
       </c>
       <c r="J288">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K288">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -23699,10 +23644,10 @@
         </is>
       </c>
       <c r="M288">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N288">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
@@ -23728,7 +23673,7 @@
         </is>
       </c>
       <c r="J289">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K289">
         <v>17</v>
@@ -23739,10 +23684,10 @@
         </is>
       </c>
       <c r="M289">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N289">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
@@ -23753,7 +23698,7 @@
         <v>22</v>
       </c>
       <c r="Q289">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -23767,11 +23712,39 @@
           <t>BD</t>
         </is>
       </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>BD-I</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E290">
+        <v>39</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Non-coffee</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Smoking</t>
+        </is>
+      </c>
       <c r="J290">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K290">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -23779,11 +23752,11 @@
         </is>
       </c>
       <c r="M290">
+        <v>28</v>
+      </c>
+      <c r="N290">
         <v>29</v>
       </c>
-      <c r="N290">
-        <v>30</v>
-      </c>
       <c r="O290" t="inlineStr">
         <is>
           <t>NORMAL</t>
@@ -23793,11 +23766,21 @@
         <v>22</v>
       </c>
       <c r="Q290">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
           <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -23809,7 +23792,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -23817,12 +23800,18 @@
           <t>Male</t>
         </is>
       </c>
+      <c r="D291">
+        <v>29</v>
+      </c>
       <c r="E291">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="F291">
+        <v>23</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -23839,7 +23828,7 @@
         <v>17</v>
       </c>
       <c r="K291">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -23847,10 +23836,10 @@
         </is>
       </c>
       <c r="M291">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N291">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -23858,24 +23847,24 @@
         </is>
       </c>
       <c r="P291">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q291">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T291" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -23887,7 +23876,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -23896,13 +23885,13 @@
         </is>
       </c>
       <c r="D292">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E292">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F292">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -23911,12 +23900,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J292">
@@ -23942,14 +23931,14 @@
         </is>
       </c>
       <c r="P292">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q292">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
@@ -23959,7 +23948,7 @@
       </c>
       <c r="T292" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -23976,31 +23965,31 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D293">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E293">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F293">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J293">
@@ -24015,7 +24004,7 @@
         </is>
       </c>
       <c r="M293">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N293">
         <v>30</v>
@@ -24029,11 +24018,11 @@
         <v>22</v>
       </c>
       <c r="Q293">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
@@ -24060,64 +24049,64 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D294">
+        <v>32</v>
+      </c>
+      <c r="E294">
+        <v>36</v>
+      </c>
+      <c r="F294">
+        <v>4</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Non-smoking</t>
+        </is>
+      </c>
+      <c r="J294">
+        <v>18</v>
+      </c>
+      <c r="K294">
         <v>20</v>
       </c>
-      <c r="E294">
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="M294">
+        <v>30</v>
+      </c>
+      <c r="N294">
+        <v>30</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="P294">
+        <v>22</v>
+      </c>
+      <c r="Q294">
         <v>23</v>
       </c>
-      <c r="F294">
-        <v>3</v>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>MILD</t>
-        </is>
-      </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>Non-coffee</t>
-        </is>
-      </c>
-      <c r="I294" t="inlineStr">
-        <is>
-          <t>Smoking</t>
-        </is>
-      </c>
-      <c r="J294">
-        <v>17</v>
-      </c>
-      <c r="K294">
-        <v>17</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="M294">
-        <v>30</v>
-      </c>
-      <c r="N294">
-        <v>30</v>
-      </c>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="P294">
-        <v>22</v>
-      </c>
-      <c r="Q294">
-        <v>27</v>
-      </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="S294" t="inlineStr">
@@ -24144,17 +24133,17 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D295">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E295">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F295">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -24163,19 +24152,19 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J295">
         <v>18</v>
       </c>
       <c r="K295">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -24183,7 +24172,7 @@
         </is>
       </c>
       <c r="M295">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N295">
         <v>30</v>
@@ -24197,7 +24186,7 @@
         <v>22</v>
       </c>
       <c r="Q295">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -24232,13 +24221,13 @@
         </is>
       </c>
       <c r="D296">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E296">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F296">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -24256,10 +24245,10 @@
         </is>
       </c>
       <c r="J296">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K296">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -24270,7 +24259,7 @@
         <v>29</v>
       </c>
       <c r="N296">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -24316,13 +24305,13 @@
         </is>
       </c>
       <c r="D297">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E297">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F297">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -24336,36 +24325,36 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J297">
         <v>17</v>
       </c>
       <c r="K297">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="M297">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N297">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P297">
         <v>22</v>
       </c>
       <c r="Q297">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -24396,38 +24385,38 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D298">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E298">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F298">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J298">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K298">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -24435,21 +24424,21 @@
         </is>
       </c>
       <c r="M298">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N298">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P298">
         <v>22</v>
       </c>
       <c r="Q298">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -24484,22 +24473,22 @@
         </is>
       </c>
       <c r="D299">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E299">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F299">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -24508,21 +24497,21 @@
         </is>
       </c>
       <c r="J299">
+        <v>17</v>
+      </c>
+      <c r="K299">
         <v>18</v>
       </c>
-      <c r="K299">
-        <v>29</v>
-      </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="M299">
         <v>29</v>
       </c>
       <c r="N299">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
@@ -24568,17 +24557,17 @@
         </is>
       </c>
       <c r="D300">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E300">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F300">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -24592,10 +24581,10 @@
         </is>
       </c>
       <c r="J300">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K300">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -24603,7 +24592,7 @@
         </is>
       </c>
       <c r="M300">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N300">
         <v>30</v>
@@ -24648,21 +24637,21 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D301">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E301">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -24672,14 +24661,14 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J301">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K301">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -24687,10 +24676,10 @@
         </is>
       </c>
       <c r="M301">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N301">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
@@ -24698,10 +24687,10 @@
         </is>
       </c>
       <c r="P301">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q301">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -24736,13 +24725,13 @@
         </is>
       </c>
       <c r="D302">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E302">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F302">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -24756,11 +24745,11 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J302">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K302">
         <v>17</v>
@@ -24771,10 +24760,10 @@
         </is>
       </c>
       <c r="M302">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N302">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
@@ -24782,10 +24771,10 @@
         </is>
       </c>
       <c r="P302">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q302">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -24820,17 +24809,17 @@
         </is>
       </c>
       <c r="D303">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E303">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F303">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -24840,14 +24829,14 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J303">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K303">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -24900,21 +24889,21 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D304">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E304">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F304">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -24924,14 +24913,14 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J304">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K304">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -24962,7 +24951,7 @@
       </c>
       <c r="S304" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T304" t="inlineStr">
@@ -24979,7 +24968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -24988,13 +24977,13 @@
         </is>
       </c>
       <c r="D305">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E305">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F305">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -25015,7 +25004,7 @@
         <v>17</v>
       </c>
       <c r="K305">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -25026,22 +25015,22 @@
         <v>29</v>
       </c>
       <c r="N305">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P305">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q305">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="S305" t="inlineStr">
@@ -25051,7 +25040,7 @@
       </c>
       <c r="T305" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -25072,17 +25061,17 @@
         </is>
       </c>
       <c r="D306">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E306">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F306">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -25092,14 +25081,14 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J306">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K306">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -25107,30 +25096,30 @@
         </is>
       </c>
       <c r="M306">
+        <v>28</v>
+      </c>
+      <c r="N306">
         <v>29</v>
       </c>
-      <c r="N306">
-        <v>36</v>
-      </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P306">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q306">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="S306" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T306" t="inlineStr">
@@ -25147,7 +25136,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -25156,13 +25145,13 @@
         </is>
       </c>
       <c r="D307">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E307">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F307">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -25171,7 +25160,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -25180,10 +25169,10 @@
         </is>
       </c>
       <c r="J307">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K307">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -25191,10 +25180,10 @@
         </is>
       </c>
       <c r="M307">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N307">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
@@ -25219,7 +25208,7 @@
       </c>
       <c r="T307" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -25236,60 +25225,60 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D308">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E308">
+        <v>45</v>
+      </c>
+      <c r="F308">
+        <v>22</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>SEVERE</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Non-coffee</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Non-smoking</t>
+        </is>
+      </c>
+      <c r="J308">
+        <v>17</v>
+      </c>
+      <c r="K308">
+        <v>23</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="M308">
+        <v>30</v>
+      </c>
+      <c r="N308">
         <v>33</v>
       </c>
-      <c r="F308">
-        <v>2</v>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>MODERATE</t>
-        </is>
-      </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>Non-smoking</t>
-        </is>
-      </c>
-      <c r="J308">
-        <v>19</v>
-      </c>
-      <c r="K308">
-        <v>20</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="M308">
-        <v>30</v>
-      </c>
-      <c r="N308">
-        <v>30</v>
-      </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P308">
         <v>22</v>
       </c>
       <c r="Q308">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -25320,21 +25309,21 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D309">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E309">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F309">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -25348,7 +25337,7 @@
         </is>
       </c>
       <c r="J309">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K309">
         <v>23</v>
@@ -25359,23 +25348,12 @@
         </is>
       </c>
       <c r="M309">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N309">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O309" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="P309">
-        <v>22</v>
-      </c>
-      <c r="Q309">
-        <v>23</v>
-      </c>
-      <c r="R309" t="inlineStr">
         <is>
           <t>NORMAL</t>
         </is>
@@ -25404,21 +25382,18 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D310">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E310">
-        <v>46</v>
-      </c>
-      <c r="F310">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -25428,14 +25403,14 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J310">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K310">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -25453,6 +25428,17 @@
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="P310">
+        <v>22</v>
+      </c>
+      <c r="Q310">
+        <v>22</v>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
       <c r="S310" t="inlineStr">
         <is>
           <t>CD</t>
@@ -25477,21 +25463,21 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D311">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E311">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -25505,10 +25491,10 @@
         </is>
       </c>
       <c r="J311">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K311">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -25519,11 +25505,11 @@
         <v>29</v>
       </c>
       <c r="N311">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P311">
@@ -25561,21 +25547,21 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D312">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E312">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F312">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -25589,25 +25575,25 @@
         </is>
       </c>
       <c r="J312">
+        <v>17</v>
+      </c>
+      <c r="K312">
         <v>19</v>
       </c>
-      <c r="K312">
-        <v>21</v>
-      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>NORMAL</t>
         </is>
       </c>
       <c r="M312">
+        <v>28</v>
+      </c>
+      <c r="N312">
         <v>29</v>
       </c>
-      <c r="N312">
-        <v>34</v>
-      </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P312">
@@ -25649,17 +25635,17 @@
         </is>
       </c>
       <c r="D313">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E313">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F313">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -25669,14 +25655,14 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J313">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K313">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -25684,10 +25670,10 @@
         </is>
       </c>
       <c r="M313">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N313">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
@@ -25729,22 +25715,17 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D314">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E314">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F314">
-        <v>9</v>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>SEVERE</t>
-        </is>
+        <v>6</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
@@ -25757,10 +25738,10 @@
         </is>
       </c>
       <c r="J314">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K314">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -25768,10 +25749,10 @@
         </is>
       </c>
       <c r="M314">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N314">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
@@ -25782,16 +25763,11 @@
         <v>22</v>
       </c>
       <c r="Q314">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
           <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="S314" t="inlineStr">
-        <is>
-          <t>CD</t>
         </is>
       </c>
       <c r="T314" t="inlineStr">
@@ -25808,22 +25784,21 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D315">
-        <v>29</v>
+          <t>Female</t>
+        </is>
       </c>
       <c r="E315">
-        <v>35</v>
-      </c>
-      <c r="F315">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
@@ -25836,10 +25811,10 @@
         </is>
       </c>
       <c r="J315">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K315">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -25861,16 +25836,21 @@
         <v>22</v>
       </c>
       <c r="Q315">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
           <t>NORMAL</t>
         </is>
       </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="T315" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -25882,7 +25862,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -25891,7 +25871,7 @@
         </is>
       </c>
       <c r="E316">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -25909,10 +25889,10 @@
         </is>
       </c>
       <c r="J316">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K316">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -25920,10 +25900,10 @@
         </is>
       </c>
       <c r="M316">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N316">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
@@ -25948,7 +25928,7 @@
       </c>
       <c r="T316" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -25968,12 +25948,18 @@
           <t>Female</t>
         </is>
       </c>
+      <c r="D317">
+        <v>27</v>
+      </c>
       <c r="E317">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="F317">
+        <v>16</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -25987,10 +25973,10 @@
         </is>
       </c>
       <c r="J317">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K317">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -26012,7 +25998,7 @@
         <v>22</v>
       </c>
       <c r="Q317">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -26021,7 +26007,7 @@
       </c>
       <c r="S317" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T317" t="inlineStr">
@@ -26038,7 +26024,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -26047,45 +26033,45 @@
         </is>
       </c>
       <c r="D318">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E318">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F318">
+        <v>19</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Non-smoking</t>
+        </is>
+      </c>
+      <c r="J318">
         <v>16</v>
       </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>MILD</t>
-        </is>
-      </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>Non-coffee</t>
-        </is>
-      </c>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>Non-smoking</t>
-        </is>
-      </c>
-      <c r="J318">
+      <c r="K318">
         <v>17</v>
       </c>
-      <c r="K318">
-        <v>19</v>
-      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>NORMAL</t>
         </is>
       </c>
       <c r="M318">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N318">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
@@ -26096,7 +26082,7 @@
         <v>22</v>
       </c>
       <c r="Q318">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -26110,7 +26096,7 @@
       </c>
       <c r="T318" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -26122,22 +26108,22 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D319">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E319">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F319">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -26146,7 +26132,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -26155,10 +26141,10 @@
         </is>
       </c>
       <c r="J319">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K319">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -26166,14 +26152,14 @@
         </is>
       </c>
       <c r="M319">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N319">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P319">
@@ -26194,7 +26180,7 @@
       </c>
       <c r="T319" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -26211,17 +26197,17 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D320">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E320">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F320">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -26239,10 +26225,10 @@
         </is>
       </c>
       <c r="J320">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K320">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -26250,14 +26236,14 @@
         </is>
       </c>
       <c r="M320">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N320">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="P320">
@@ -26295,21 +26281,21 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D321">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E321">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F321">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -26319,22 +26305,22 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J321">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K321">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="M321">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N321">
         <v>30</v>
@@ -26379,21 +26365,21 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D322">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E322">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F322">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -26407,22 +26393,22 @@
         </is>
       </c>
       <c r="J322">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K322">
+        <v>19</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="M322">
+        <v>28</v>
+      </c>
+      <c r="N322">
         <v>29</v>
       </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="M322">
-        <v>30</v>
-      </c>
-      <c r="N322">
-        <v>30</v>
-      </c>
       <c r="O322" t="inlineStr">
         <is>
           <t>NORMAL</t>
@@ -26441,7 +26427,7 @@
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T322" t="inlineStr">
@@ -26467,45 +26453,45 @@
         </is>
       </c>
       <c r="D323">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E323">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F323">
+        <v>8</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Non-coffee</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="J323">
+        <v>16</v>
+      </c>
+      <c r="K323">
         <v>18</v>
       </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>Non-coffee</t>
-        </is>
-      </c>
-      <c r="I323" t="inlineStr">
-        <is>
-          <t>Smoking</t>
-        </is>
-      </c>
-      <c r="J323">
-        <v>17</v>
-      </c>
-      <c r="K323">
-        <v>19</v>
-      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>NORMAL</t>
         </is>
       </c>
       <c r="M323">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N323">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
@@ -26525,7 +26511,7 @@
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T323" t="inlineStr">
@@ -26542,7 +26528,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -26551,17 +26537,17 @@
         </is>
       </c>
       <c r="D324">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E324">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F324">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>SEVERE</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -26571,14 +26557,14 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J324">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K324">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -26586,10 +26572,10 @@
         </is>
       </c>
       <c r="M324">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N324">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
@@ -26600,11 +26586,11 @@
         <v>22</v>
       </c>
       <c r="Q324">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="S324" t="inlineStr">
@@ -26614,7 +26600,7 @@
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -26626,7 +26612,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -26635,17 +26621,17 @@
         </is>
       </c>
       <c r="D325">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E325">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F325">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>SEVERE</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -26662,7 +26648,7 @@
         <v>17</v>
       </c>
       <c r="K325">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -26670,10 +26656,10 @@
         </is>
       </c>
       <c r="M325">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N325">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
@@ -26684,11 +26670,11 @@
         <v>22</v>
       </c>
       <c r="Q325">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="S325" t="inlineStr">
@@ -26698,7 +26684,7 @@
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -26719,34 +26705,34 @@
         </is>
       </c>
       <c r="D326">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E326">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F326">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J326">
         <v>17</v>
       </c>
       <c r="K326">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -26754,7 +26740,7 @@
         </is>
       </c>
       <c r="M326">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N326">
         <v>30</v>
@@ -26794,7 +26780,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>BD-II</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -26803,42 +26789,42 @@
         </is>
       </c>
       <c r="D327">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E327">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F327">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Non-coffee</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J327">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K327">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="M327">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N327">
         <v>30</v>
@@ -26861,12 +26847,12 @@
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T327" t="inlineStr">
         <is>
-          <t>BD-I</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -26878,7 +26864,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>BD-II</t>
+          <t>BD-I</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -26887,17 +26873,17 @@
         </is>
       </c>
       <c r="D328">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E328">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F328">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MILD</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -26907,23 +26893,23 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J328">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K328">
+        <v>17</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="M328">
         <v>29</v>
       </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="M328">
-        <v>30</v>
-      </c>
       <c r="N328">
         <v>30</v>
       </c>
@@ -26945,12 +26931,12 @@
       </c>
       <c r="S328" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BD-I</t>
         </is>
       </c>
     </row>
@@ -26971,34 +26957,34 @@
         </is>
       </c>
       <c r="D329">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E329">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F329">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>MILD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Non-coffee</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>Non-smoking</t>
         </is>
       </c>
       <c r="J329">
         <v>17</v>
       </c>
       <c r="K329">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -27029,7 +27015,7 @@
       </c>
       <c r="S329" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="T329" t="inlineStr">
@@ -27051,21 +27037,18 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D330">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E330">
-        <v>27</v>
-      </c>
-      <c r="F330">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -27075,14 +27058,14 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Non-smoking</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="J330">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K330">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -27090,14 +27073,14 @@
         </is>
       </c>
       <c r="M330">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N330">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="P330">
@@ -27113,94 +27096,10 @@
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="T330" t="inlineStr">
-        <is>
-          <t>BD-I</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>BD-I</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D331">
-        <v>25</v>
-      </c>
-      <c r="E331">
-        <v>25</v>
-      </c>
-      <c r="F331">
-        <v>0</v>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>MODERATE</t>
-        </is>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="I331" t="inlineStr">
-        <is>
-          <t>Smoking</t>
-        </is>
-      </c>
-      <c r="J331">
-        <v>20</v>
-      </c>
-      <c r="K331">
-        <v>20</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="M331">
-        <v>30</v>
-      </c>
-      <c r="N331">
-        <v>34</v>
-      </c>
-      <c r="O331" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="P331">
-        <v>22</v>
-      </c>
-      <c r="Q331">
-        <v>22</v>
-      </c>
-      <c r="R331" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="S331" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="T331" t="inlineStr">
         <is>
           <t>BD-I</t>
         </is>
